--- a/table_overleaf/RQ2-2.xlsx
+++ b/table_overleaf/RQ2-2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yinghua.li/Documents/Pycharm/NodeRank/table_overleaf/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B20241C8-AE4B-1C48-B02A-0A0D2EF5D292}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E4E9421-AE53-F643-A17C-2E44D40285A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -767,7 +767,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1089,8 +1089,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:J36"/>
+    <sheetView tabSelected="1" zoomScale="174" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
